--- a/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2_极光组.xlsx
+++ b/VersionRecords/Version 5.0.0.2 20160908/版本Bug和特性计划及评审表v5.0.0.2_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>房东App</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -945,7 +953,7 @@
   <dimension ref="A1:T185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1066,9 +1074,15 @@
       <c r="L2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="30">
+        <v>42621</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35"/>
